--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H2">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N2">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O2">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P2">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q2">
-        <v>83.51362543270001</v>
+        <v>427.3706924562572</v>
       </c>
       <c r="R2">
-        <v>751.6226288943</v>
+        <v>3846.336232106315</v>
       </c>
       <c r="S2">
-        <v>0.08736072487271232</v>
+        <v>0.1993675107294285</v>
       </c>
       <c r="T2">
-        <v>0.08736072487271233</v>
+        <v>0.1993675107294285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H3">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P3">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q3">
-        <v>23.547383935</v>
+        <v>73.20425333865556</v>
       </c>
       <c r="R3">
-        <v>211.926455415</v>
+        <v>658.8382800479001</v>
       </c>
       <c r="S3">
-        <v>0.02463210666234819</v>
+        <v>0.03414962705807913</v>
       </c>
       <c r="T3">
-        <v>0.02463210666234819</v>
+        <v>0.03414962705807912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H4">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N4">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O4">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P4">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q4">
-        <v>4.960070179400001</v>
+        <v>20.046134942646</v>
       </c>
       <c r="R4">
-        <v>44.6406316146</v>
+        <v>180.415214483814</v>
       </c>
       <c r="S4">
-        <v>0.005188558442371757</v>
+        <v>0.009351478924050478</v>
       </c>
       <c r="T4">
-        <v>0.005188558442371758</v>
+        <v>0.009351478924050478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H5">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N5">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q5">
-        <v>2.74868370865</v>
+        <v>10.22544498111011</v>
       </c>
       <c r="R5">
-        <v>24.73815337785</v>
+        <v>92.029004829991</v>
       </c>
       <c r="S5">
-        <v>0.0028753032812231</v>
+        <v>0.004770148135961172</v>
       </c>
       <c r="T5">
-        <v>0.0028753032812231</v>
+        <v>0.004770148135961172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.835809</v>
       </c>
       <c r="I6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N6">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O6">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P6">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q6">
-        <v>241.9675512956949</v>
+        <v>398.3005244065773</v>
       </c>
       <c r="R6">
-        <v>2177.707961661254</v>
+        <v>3584.704719659195</v>
       </c>
       <c r="S6">
-        <v>0.2531139148533513</v>
+        <v>0.1858063397299827</v>
       </c>
       <c r="T6">
-        <v>0.2531139148533514</v>
+        <v>0.1858063397299827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.835809</v>
       </c>
       <c r="I7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P7">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q7">
         <v>68.22482918985557</v>
@@ -883,10 +883,10 @@
         <v>614.0234627087</v>
       </c>
       <c r="S7">
-        <v>0.07136764212380896</v>
+        <v>0.03182673638041791</v>
       </c>
       <c r="T7">
-        <v>0.07136764212380897</v>
+        <v>0.0318267363804179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.835809</v>
       </c>
       <c r="I8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N8">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O8">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P8">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q8">
-        <v>14.37102064897645</v>
+        <v>18.682577446038</v>
       </c>
       <c r="R8">
-        <v>129.339185840788</v>
+        <v>168.143197014342</v>
       </c>
       <c r="S8">
-        <v>0.01503302933563843</v>
+        <v>0.008715382278600199</v>
       </c>
       <c r="T8">
-        <v>0.01503302933563843</v>
+        <v>0.008715382278600199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.835809</v>
       </c>
       <c r="I9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N9">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q9">
-        <v>7.963877305319223</v>
+        <v>9.529900318758111</v>
       </c>
       <c r="R9">
-        <v>71.67489574787301</v>
+        <v>85.769102868823</v>
       </c>
       <c r="S9">
-        <v>0.008330737536363916</v>
+        <v>0.004445678043879572</v>
       </c>
       <c r="T9">
-        <v>0.008330737536363918</v>
+        <v>0.004445678043879572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H10">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N10">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O10">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P10">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q10">
-        <v>313.1883293269213</v>
+        <v>677.9410217745191</v>
       </c>
       <c r="R10">
-        <v>2818.694963942292</v>
+        <v>6101.469195970671</v>
       </c>
       <c r="S10">
-        <v>0.3276155157905594</v>
+        <v>0.3162580315363697</v>
       </c>
       <c r="T10">
-        <v>0.3276155157905595</v>
+        <v>0.3162580315363696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H11">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P11">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q11">
-        <v>88.30613922473333</v>
+        <v>116.1244024980222</v>
       </c>
       <c r="R11">
-        <v>794.7552530226</v>
+        <v>1045.1196224822</v>
       </c>
       <c r="S11">
-        <v>0.09237400835388387</v>
+        <v>0.05417178451782242</v>
       </c>
       <c r="T11">
-        <v>0.09237400835388387</v>
+        <v>0.0541717845178224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H12">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N12">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O12">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P12">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q12">
-        <v>18.60098977600267</v>
+        <v>31.799319526428</v>
       </c>
       <c r="R12">
-        <v>167.408907984024</v>
+        <v>286.193875737852</v>
       </c>
       <c r="S12">
-        <v>0.01945785423351088</v>
+        <v>0.01483431430554297</v>
       </c>
       <c r="T12">
-        <v>0.01945785423351088</v>
+        <v>0.01483431430554297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H13">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N13">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q13">
-        <v>10.30796656353933</v>
+        <v>16.22069257662645</v>
       </c>
       <c r="R13">
-        <v>92.771699071854</v>
+        <v>145.986233189638</v>
       </c>
       <c r="S13">
-        <v>0.0107828085092553</v>
+        <v>0.007566918271168845</v>
       </c>
       <c r="T13">
-        <v>0.0107828085092553</v>
+        <v>0.007566918271168844</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H14">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I14">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J14">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N14">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O14">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P14">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q14">
-        <v>56.94873201138289</v>
+        <v>222.1704461511362</v>
       </c>
       <c r="R14">
-        <v>512.5385881024461</v>
+        <v>1999.534015360225</v>
       </c>
       <c r="S14">
-        <v>0.05957210554947646</v>
+        <v>0.1036420362665185</v>
       </c>
       <c r="T14">
-        <v>0.05957210554947646</v>
+        <v>0.1036420362665185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H15">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I15">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J15">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>126.9743</v>
       </c>
       <c r="O15">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P15">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q15">
-        <v>16.05718408625556</v>
+        <v>38.05553799427778</v>
       </c>
       <c r="R15">
-        <v>144.5146567763</v>
+        <v>342.4998419485</v>
       </c>
       <c r="S15">
-        <v>0.01679686678577133</v>
+        <v>0.01775282679255061</v>
       </c>
       <c r="T15">
-        <v>0.01679686678577133</v>
+        <v>0.0177528267925506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H16">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I16">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J16">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N16">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O16">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P16">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q16">
-        <v>3.382318824512445</v>
+        <v>10.42106728989</v>
       </c>
       <c r="R16">
-        <v>30.440869420612</v>
+        <v>93.78960560901001</v>
       </c>
       <c r="S16">
-        <v>0.00353812713469305</v>
+        <v>0.004861405523126489</v>
       </c>
       <c r="T16">
-        <v>0.00353812713469305</v>
+        <v>0.004861405523126489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H17">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I17">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J17">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N17">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q17">
-        <v>1.874353449475223</v>
+        <v>5.315740441840556</v>
       </c>
       <c r="R17">
-        <v>16.869181045277</v>
+        <v>47.841663976565</v>
       </c>
       <c r="S17">
-        <v>0.001960696535031629</v>
+        <v>0.002479781506500885</v>
       </c>
       <c r="T17">
-        <v>0.001960696535031629</v>
+        <v>0.002479781506500885</v>
       </c>
     </row>
   </sheetData>
